--- a/results/DT/375Hz_3classes/res_hyperopt.xlsx
+++ b/results/DT/375Hz_3classes/res_hyperopt.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 64, 'max_features': 0.04774888756659251, 'min_samples_leaf': 0.010265894686594345, 'min_samples_split': 0.0028308054865497853}</t>
+          <t>{'max_depth': 64, 'max_features': 0.04756262611180309, 'min_samples_leaf': 0.010284706210797068, 'min_samples_split': 0.020292214653004452}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 31, 'max_features': 0.7689606424787003, 'min_samples_leaf': 0.008530199359602607, 'min_samples_split': 0.028438940549388413}</t>
+          <t>{'max_depth': 83, 'max_features': 0.7683028547652893, 'min_samples_leaf': 0.0012415303271781572, 'min_samples_split': 0.017020568970512486}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.057, 'std_class_10_25': 0.004, 'var_10_25': 0.082, 'skew_10_50': 0.025, 'coef_kstatvar_10_50': 0.012, 'var_10_50': 0.076, 'std_class_25_75': 0.02, 'std_class_50_100': 0.003, 'max_75_125': 0.439, 'std_class_75_125': 0.106, 'mad_100_150': 0.032, 'score_at_perc_100_150': 0.02, 'kurt_175_225': 0.026, 'score_at_perc_200_250': 0.003, 'kurt_250_300': 0.049, 'std_class_250_300': 0.02, 'mad_300_350': 0.027}</t>
+          <t>{'mean_10_25': 0.055, 'max_10_25': 0.01, 'coef_var_10_25': 0.008, 'var_10_25': 0.079, 'skew_10_50': 0.024, 'var_10_50': 0.073, 'coef_kstatvar_25_75': 0.01, 'std_class_25_75': 0.02, 'coef_kstatvar_50_100': 0.009, 'max_75_125': 0.423, 'percScore_75_125': 0.019, 'coef_var_75_125': 0.102, 'mad_100_150': 0.031, 'score_at_perc_100_150': 0.02, 'kurt_175_225': 0.025, 'kurt_250_300': 0.047, 'std_class_250_300': 0.019, 'mad_300_350': 0.026}</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.14109525070367954, 'min_samples_leaf': 0.0015699651843766003, 'min_samples_split': 0.02860244460808814}</t>
+          <t>{'max_depth': 55, 'max_features': 0.1441691339454083, 'min_samples_leaf': 0.0012335495243206741, 'min_samples_split': 0.03509717018198072}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'score_at_perc_10_25': 0.01, 'coef_kstatvar_25_75': 0.02, 'var_25_75': 0.14, 'kurt_50_100': 0.054, 'kurt_75_125': 0.021, 'std_class_75_125': 0.092, 'kurt_100_150': 0.016, 'kurt_150_200': 0.131, 'std_class_150_200': 0.02, 'kurt_175_225': 0.169, 'skew_175_225': 0.004, 'var_175_225': 0.003, 'coef_kstatvar_200_250': 0.019, 'var_225_275': 0.076, 'max_250_300': 0.072, 'min_250_300': 0.011, 'var_250_300': 0.061, 'coef_kstatvar_275_325': 0.018, 'min_275_325': 0.063}</t>
+          <t>{'max_10_50': 0.011, 'coef_kstatvar_10_50': 0.011, 'coef_kstatvar_25_75': 0.02, 'var_25_75': 0.141, 'kurt_50_100': 0.054, 'kurt_75_125': 0.021, 'std_class_75_125': 0.093, 'kurt_150_200': 0.131, 'std_class_150_200': 0.02, 'kurt_175_225': 0.17, 'skew_175_225': 0.004, 'var_175_225': 0.003, 'coef_kstatvar_200_250': 0.019, 'var_225_275': 0.077, 'max_250_300': 0.072, 'min_250_300': 0.011, 'var_250_300': 0.061, 'coef_kstatvar_275_325': 0.019, 'min_275_325': 0.063}</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 85, 'max_features': 0.10733409330691684, 'min_samples_leaf': 0.009064332925192292, 'min_samples_split': 0.0012292407074257598}</t>
+          <t>{'max_depth': 96, 'max_features': 0.10735747209888215, 'min_samples_leaf': 0.010073198689878686, 'min_samples_split': 0.017676953746071818}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.6895334347026821, 'min_samples_leaf': 0.001253150764081463, 'min_samples_split': 0.008740735408445575}</t>
+          <t>{'max_depth': 54, 'max_features': 0.5758503198359014, 'min_samples_leaf': 0.009936516384368071, 'min_samples_split': 0.013536991326940351}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.121, 'std_class_10_25': 0.017, 'score_at_perc_10_50': 0.027, 'min_10_50': 0.06, 'var_10_50': 0.035, 'mean_25_75': 0.03, 'var_25_75': 0.094, 'mean_75_125': 0.01, 'max_75_125': 0.254, 'coef_var_75_125': 0.02, 'min_75_125': 0.037, 'std_class_75_125': 0.023, 'var_100_150': 0.031, 'kurt_150_200': 0.057, 'min_150_200': 0.01, 'kurt_175_225': 0.051, 'score_at_perc_175_225': 0.01, 'kurt_250_300': 0.084, 'coef_kstatvar_275_325': 0.015, 'min_325_375': 0.011}</t>
+          <t>{'mean_10_25': 0.128, 'kurt_10_25': 0.014, 'std_class_10_25': 0.022, 'mean_10_50': 0.024, 'score_at_perc_10_50': 0.029, 'std_class_10_50': 0.065, 'mean_25_75': 0.025, 'coef_var_25_75': 0.027, 'coef_var_50_100': 0.055, 'var_50_100': 0.096, 'max_75_125': 0.272, 'skew_125_175': 0.004, 'max_150_200': 0.049, 'mad_200_250': 0.031, 'score_at_perc_200_250': 0.014, 'score_at_perc_225_275': 0.002, 'skew_250_300': 0.016, 'max_275_325': 0.099, 'skew_275_325': 0.004, 'min_275_325': 0.01, 'var_300_350': 0.013}</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 33, 'max_features': 0.7438593319472379, 'min_samples_leaf': 0.010871447847658623, 'min_samples_split': 0.010389018821046519}</t>
+          <t>{'max_depth': 77, 'max_features': 0.7438611632095428, 'min_samples_leaf': 0.012712773592881609, 'min_samples_split': 0.0018882769963643534}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D8" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 71, 'max_features': 0.1261140047798724, 'min_samples_leaf': 0.0010810405970778803, 'min_samples_split': 0.07857435008165621}</t>
+          <t>{'max_depth': 28, 'max_features': 0.048747707499823247, 'min_samples_leaf': 0.00999662438302387, 'min_samples_split': 0.04873228113730936}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'percScore_10_25': 0.045, 'coef_var_10_25': 0.011, 'min_10_50': 0.093, 'kurt_25_75': 0.014, 'var_25_75': 0.102, 'coef_var_50_100': 0.033, 'kurt_75_125': 0.01, 'score_at_perc_75_125': 0.012, 'coef_var_75_125': 0.036, 'min_75_125': 0.01, 'max_125_175': 0.031, 'kurt_150_200': 0.231, 'kurt_175_225': 0.108, 'score_at_perc_175_225': 0.019, 'var_175_225': 0.011, 'max_250_300': 0.114, 'var_250_300': 0.039, 'std_class_275_325': 0.066, 'mad_325_375': 0.014}</t>
+          <t>{'mean_10_25': 0.024, 'max_10_25': 0.022, 'percScore_10_25': 0.023, 'var_10_25': 0.022, 'percScore_10_50': 0.018, 'coef_var_10_50': 0.061, 'std_class_10_50': 0.072, 'mean_25_75': 0.053, 'coef_var_25_75': 0.012, 'var_25_75': 0.029, 'kurt_50_100': 0.056, 'coef_var_50_100': 0.125, 'min_75_125': 0.143, 'var_100_150': 0.011, 'score_at_perc_150_200': 0.008, 'min_150_200': 0.033, 'kurt_175_225': 0.105, 'kurt_250_300': 0.066, 'coef_kstatvar_250_300': 0.015, 'max_275_325': 0.04, 'std_class_275_325': 0.052, 'mean_300_350': 0.011}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D9" t="n">
         <v>0.85</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 59, 'max_features': 0.536985571894318, 'min_samples_leaf': 0.0015795209562033756, 'min_samples_split': 0.0015842698779118328}</t>
+          <t>{'max_depth': 58, 'max_features': 0.5377225457486949, 'min_samples_leaf': 0.0023810166761970815, 'min_samples_split': 0.012765451935445704}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.058, 'mean_10_25': 0.134, 'min_10_25': 0.041, 'coef_var_10_50': 0.007, 'min_10_50': 0.06, 'var_25_75': 0.08, 'min_50_100': 0.015, 'mean_75_125': 0.008, 'max_75_125': 0.176, 'skew_75_125': 0.002, 'entropy_75_125': 0.008, 'coef_var_75_125': 0.097, 'mad_125_175': 0.016, 'min_125_175': 0.005, 'max_175_225': 0.007, 'kurt_175_225': 0.063, 'score_at_perc_175_225': 0.007, 'min_175_225': 0.011, 'var_225_275': 0.084, 'kurt_250_300': 0.006, 'max_275_325': 0.08, 'coef_kstatvar_275_325': 0.007, 'max_300_350': 0.022, 'entropy_300_350': 0.007}</t>
+          <t>{'var_325_375': 0.023, 'mean_10_25': 0.135, 'min_10_25': 0.042, 'mean_10_50': 0.011, 'coef_var_10_50': 0.007, 'min_10_50': 0.06, 'var_25_75': 0.081, 'max_75_125': 0.178, 'skew_75_125': 0.002, 'entropy_75_125': 0.008, 'coef_var_75_125': 0.097, 'mad_125_175': 0.016, 'entropy_125_175': 0.008, 'mad_150_200': 0.007, 'std_class_150_200': 0.032, 'kurt_175_225': 0.071, 'var_225_275': 0.084, 'kurt_250_300': 0.006, 'max_275_325': 0.081, 'coef_kstatvar_275_325': 0.007, 'std_class_275_325': 0.015, 'max_300_350': 0.022, 'entropy_300_350': 0.007}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 91, 'max_features': 0.32196125145759225, 'min_samples_leaf': 0.0884022397213812, 'min_samples_split': 0.077072891722134}</t>
+          <t>{'max_depth': 43, 'max_features': 0.3321295333615608, 'min_samples_leaf': 0.011220433209342684, 'min_samples_split': 0.06937823958280728}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'min_10_25': 0.096, 'var_10_25': 0.079, 'max_75_125': 0.354, 'coef_var_75_125': 0.112, 'kurt_150_200': 0.118, 'var_225_275': 0.143, 'max_250_300': 0.099}</t>
+          <t>{'percScore_10_25': 0.043, 'std_class_10_50': 0.074, 'std_class_25_75': 0.018, 'var_25_75': 0.023, 'max_50_100': 0.064, 'skew_50_100': 0.028, 'percScore_50_100': 0.018, 'coef_var_50_100': 0.083, 'std_class_50_100': 0.032, 'max_75_125': 0.236, 'max_100_150': 0.031, 'min_150_200': 0.052, 'max_175_225': 0.023, 'kurt_175_225': 0.14, 'std_class_175_225': 0.027, 'min_200_250': 0.043, 'var_225_275': 0.041, 'max_250_300': 0.011, 'entropy_250_300': 0.007, 'coef_kstatvar_325_375': 0.004}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 40, 'max_features': 0.19592528039251403, 'min_samples_leaf': 0.027555293874363753, 'min_samples_split': 0.01846535034459887}</t>
+          <t>{'max_depth': 71, 'max_features': 0.19491503079331893, 'min_samples_leaf': 0.026312142777900234, 'min_samples_split': 0.017603296832334848}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="D12" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 48, 'max_features': 0.6493700659479866, 'min_samples_leaf': 0.03801307162211646, 'min_samples_split': 0.06409551659738526}</t>
+          <t>{'max_depth': 66, 'max_features': 0.37513763379444554, 'min_samples_leaf': 0.0012282749264502409, 'min_samples_split': 0.1719684046380777}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.095, 'entropy_10_25': 0.017, 'var_10_25': 0.0, 'score_at_perc_25_75': 0.002, 'var_25_75': 0.065, 'std_class_50_100': 0.11, 'max_75_125': 0.427, 'coef_var_75_125': 0.043, 'min_100_150': 0.005, 'max_150_200': 0.051, 'std_class_175_225': 0.0, 'score_at_perc_200_250': 0.029, 'max_250_300': 0.106, 'var_250_300': 0.044, 'kurt_275_325': 0.005}</t>
+          <t>{'var_325_375': 0.054, 'mean_10_25': 0.107, 'var_25_75': 0.059, 'var_50_100': 0.073, 'max_75_125': 0.398, 'min_75_125': 0.074, 'std_class_75_125': 0.02, 'kurt_175_225': 0.055, 'mad_225_275': 0.026, 'max_250_300': 0.096, 'var_250_300': 0.039}</t>
         </is>
       </c>
     </row>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 31, 'max_features': 0.34841486911574293, 'min_samples_leaf': 0.0014913532607573696, 'min_samples_split': 0.0015867234144713049}</t>
+          <t>{'max_depth': 29, 'max_features': 0.6556243318123864, 'min_samples_leaf': 0.0013022438279555928, 'min_samples_split': 0.0014986111190688108}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'percScore_10_25': 0.009, 'coef_var_10_25': 0.026, 'std_class_10_25': 0.037, 'mean_10_50': 0.007, 'skew_10_50': 0.004, 'min_10_50': 0.048, 'var_10_50': 0.007, 'min_50_100': 0.007, 'var_50_100': 0.081, 'max_75_125': 0.31, 'kurt_75_125': 0.007, 'coef_var_75_125': 0.022, 'mean_100_150': 0.018, 'max_125_175': 0.007, 'kurt_150_200': 0.007, 'std_class_150_200': 0.042, 'mean_175_225': 0.004, 'max_175_225': 0.06, 'std_class_225_275': 0.008, 'mean_250_300': 0.019, 'max_250_300': 0.055, 'kurt_250_300': 0.028, 'min_250_300': 0.031, 'std_class_250_300': 0.007, 'var_250_300': 0.032, 'min_275_325': 0.044, 'std_class_275_325': 0.052, 'mad_300_350': 0.007, 'max_325_375': 0.004, 'score_at_perc_325_375': 0.007}</t>
+          <t>{'mean_10_25': 0.075, 'percScore_10_25': 0.019, 'score_at_perc_10_25': 0.008, 'coef_kstatvar_10_25': 0.011, 'var_10_25': 0.04, 'max_10_50': 0.004, 'skew_10_50': 0.013, 'percScore_10_50': 0.002, 'score_at_perc_10_50': 0.019, 'std_class_10_50': 0.032, 'mean_25_75': 0.015, 'entropy_25_75': 0.011, 'max_50_100': 0.057, 'kurt_50_100': 0.007, 'var_50_100': 0.029, 'max_75_125': 0.255, 'entropy_75_125': 0.005, 'min_75_125': 0.015, 'skew_100_150': 0.012, 'var_100_150': 0.008, 'min_125_175': 0.005, 'max_150_200': 0.013, 'kurt_150_200': 0.066, 'skew_150_200': 0.006, 'mad_150_200': 0.019, 'entropy_150_200': 0.014, 'kurt_175_225': 0.016, 'var_175_225': 0.005, 'mad_200_250': 0.025, 'var_225_275': 0.057, 'mean_250_300': 0.007, 'mad_250_300': 0.012, 'std_class_250_300': 0.005, 'var_250_300': 0.005, 'max_275_325': 0.098, 'mad_300_350': 0.008}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D14" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.3190167529951709, 'min_samples_leaf': 0.0017330119597673262, 'min_samples_split': 0.04633954778524329}</t>
+          <t>{'max_depth': 53, 'max_features': 0.4659645836679558, 'min_samples_leaf': 0.001699814926831674, 'min_samples_split': 0.04424196438030989}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.028, 'mean_10_25': 0.054, 'coef_var_10_25': 0.004, 'std_class_10_25': 0.04, 'var_10_25': 0.061, 'mean_10_50': 0.037, 'coef_var_10_50': 0.023, 'var_10_50': 0.016, 'mean_25_75': 0.024, 'var_25_75': 0.071, 'score_at_perc_50_100': 0.008, 'var_50_100': 0.059, 'max_75_125': 0.244, 'std_class_75_125': 0.022, 'mean_100_150': 0.017, 'max_150_200': 0.032, 'kurt_175_225': 0.059, 'var_175_225': 0.02, 'var_225_275': 0.061, 'max_250_300': 0.084, 'min_250_300': 0.009, 'var_250_300': 0.003, 'min_275_325': 0.024}</t>
+          <t>{'mean_10_25': 0.064, 'coef_var_10_25': 0.07, 'min_10_25': 0.039, 'var_10_25': 0.031, 'mean_10_50': 0.073, 'max_10_50': 0.003, 'percScore_10_50': 0.004, 'score_at_perc_10_50': 0.004, 'entropy_25_75': 0.011, 'var_25_75': 0.02, 'skew_50_100': 0.008, 'var_50_100': 0.069, 'max_75_125': 0.201, 'coef_var_75_125': 0.053, 'coef_kstatvar_75_125': 0.008, 'mean_100_150': 0.014, 'max_150_200': 0.029, 'kurt_175_225': 0.049, 'var_225_275': 0.063, 'entropy_250_300': 0.016, 'min_250_300': 0.022, 'kurt_275_325': 0.107, 'skew_275_325': 0.021, 'entropy_300_350': 0.023}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="D15" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 42, 'max_features': 0.17461457834539323, 'min_samples_leaf': 0.02266037327074997, 'min_samples_split': 0.18240539200364267}</t>
+          <t>{'max_depth': 40, 'max_features': 0.02905645046395288, 'min_samples_leaf': 0.0012232567867532795, 'min_samples_split': 0.0188919327640266}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.093, 'max_10_25': 0.106, 'score_at_perc_10_25': 0.055, 'var_10_25': 0.068, 'min_10_50': 0.045, 'coef_var_50_100': 0.082, 'max_75_125': 0.021, 'coef_var_75_125': 0.074, 'max_150_200': 0.075, 'kurt_150_200': 0.264, 'kurt_250_300': 0.118}</t>
+          <t>{'var_325_375': 0.06, 'kurt_10_25': 0.014, 'entropy_10_25': 0.005, 'min_10_25': 0.029, 'kurt_10_50': 0.037, 'skew_10_50': 0.026, 'percScore_10_50': 0.006, 'coef_kstatvar_10_50': 0.012, 'var_10_50': 0.008, 'mean_25_75': 0.047, 'percScore_25_75': 0.039, 'coef_kstatvar_25_75': 0.012, 'var_25_75': 0.019, 'kurt_50_100': 0.009, 'skew_50_100': 0.021, 'coef_var_50_100': 0.009, 'min_50_100': 0.025, 'std_class_50_100': 0.031, 'mean_75_125': 0.01, 'max_75_125': 0.169, 'kurt_75_125': 0.011, 'mad_75_125': 0.032, 'percScore_75_125': 0.019, 'coef_var_75_125': 0.022, 'var_75_125': 0.004, 'max_100_150': 0.012, 'std_class_100_150': 0.028, 'max_125_175': 0.046, 'min_125_175': 0.007, 'var_125_175': 0.008, 'max_150_200': 0.034, 'min_150_200': 0.01, 'max_175_225': 0.024, 'std_class_175_225': 0.017, 'coef_kstatvar_200_250': 0.002, 'kurt_225_275': 0.004, 'skew_250_300': 0.011, 'var_250_300': 0.034, 'kurt_275_325': 0.007, 'min_275_325': 0.035, 'var_275_325': 0.009, 'mean_300_350': 0.01, 'var_300_350': 0.008, 'max_325_375': 0.024}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 60, 'max_features': 0.18137997490480223, 'min_samples_leaf': 0.0014208655464180906, 'min_samples_split': 0.053408796953602795}</t>
+          <t>{'max_depth': 93, 'max_features': 0.0660939419830089, 'min_samples_leaf': 0.010335924004121587, 'min_samples_split': 0.019720732016921903}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.128, 'min_10_25': 0.08, 'coef_var_10_50': 0.022, 'min_10_50': 0.065, 'mean_25_75': 0.015, 'score_at_perc_25_75': 0.039, 'var_25_75': 0.065, 'min_50_100': 0.02, 'std_class_50_100': 0.009, 'var_50_100': 0.038, 'max_75_125': 0.017, 'coef_var_75_125': 0.11, 'std_class_100_150': 0.004, 'max_150_200': 0.084, 'kurt_150_200': 0.181, 'skew_150_200': 0.015, 'std_class_150_200': 0.009, 'kurt_175_225': 0.013, 'var_225_275': 0.041, 'max_275_325': 0.045}</t>
+          <t>{'var_325_375': 0.049, 'std_class_10_25': 0.045, 'score_at_perc_10_50': 0.034, 'percScore_25_75': 0.002, 'max_50_100': 0.055, 'kurt_50_100': 0.03, 'coef_var_50_100': 0.05, 'std_class_50_100': 0.034, 'max_75_125': 0.038, 'coef_var_75_125': 0.035, 'min_75_125': 0.029, 'max_100_150': 0.021, 'skew_100_150': 0.001, 'entropy_100_150': 0.009, 'coef_kstatvar_100_150': 0.001, 'mean_125_175': 0.002, 'mean_150_200': 0.004, 'kurt_150_200': 0.215, 'min_150_200': 0.018, 'std_class_150_200': 0.016, 'max_175_225': 0.077, 'min_175_225': 0.039, 'coef_kstatvar_200_250': 0.013, 'var_225_275': 0.053, 'max_250_300': 0.002, 'entropy_250_300': 0.019, 'std_class_250_300': 0.071, 'kurt_275_325': 0.017, 'entropy_275_325': 0.003, 'max_300_350': 0.016}</t>
         </is>
       </c>
     </row>
